--- a/Chaky/PoblacioRP.xlsx
+++ b/Chaky/PoblacioRP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Adrian/Documents/Estudio/Màster/Anàlisi i Visualització de Dades Massives/learn_git_a_bit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b61a70b7fdcc827e/Documents/master/dades_massives/data_analysis_project/Chaky/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84027212-2088-554C-8938-10A64425228A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{84027212-2088-554C-8938-10A64425228A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76373DF5-E90A-4E40-9AE5-F0AADF69E154}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{B6270FB0-417B-4344-9553-EE815232D881}"/>
+    <workbookView xWindow="10032" yWindow="1320" windowWidth="12684" windowHeight="8964" xr2:uid="{B6270FB0-417B-4344-9553-EE815232D881}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -414,16 +414,16 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,7 +440,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -457,7 +457,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -474,7 +474,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -491,7 +491,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -508,7 +508,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -525,7 +525,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -542,7 +542,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -559,7 +559,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
